--- a/medicine/Pharmacie/Nintedanib/Nintedanib.xlsx
+++ b/medicine/Pharmacie/Nintedanib/Nintedanib.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le nintedanib est un médicament utilisé dans la fibrose pulmonaire idiopathique et certains cancers du poumon. Il est vendu sous les noms de marque Ofev et Vargatef[1].
+Le nintedanib est un médicament utilisé dans la fibrose pulmonaire idiopathique et certains cancers du poumon. Il est vendu sous les noms de marque Ofev et Vargatef.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Mode d'action</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'un inhibiteur de la tyrosine-kinase qui bloque le facteur de croissance de l'endothélium vasculaire , le facteur de croissance des fibroblastes  et le facteur de croissance dérivé des plaquettes [1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'un inhibiteur de la tyrosine-kinase qui bloque le facteur de croissance de l'endothélium vasculaire , le facteur de croissance des fibroblastes  et le facteur de croissance dérivé des plaquettes .
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Usage médical</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Est un médicament utilisé pour traiter la fibrose pulmonaire idiopathique et un type de cancer du poumon non à petites cellules [1],[2]. Il est spécifiquement utilisé pour l'le cancer non à petites cellules dans les formes avancé[1]. Il est pris par voie orale[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Est un médicament utilisé pour traiter la fibrose pulmonaire idiopathique et un type de cancer du poumon non à petites cellules ,. Il est spécifiquement utilisé pour l'le cancer non à petites cellules dans les formes avancé. Il est pris par voie orale.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les effets secondaires courants sont les douleurs abdominales, les vomissements, l'inflammation du foie, les maux de tête ou la diarrhée. D'autres effets secondaires peuvent être des caillots sanguins, des hémorragies, des anévrismes ou des perforations gastro-intestinales [2],[3]. L'utilisation pendant la grossesse peut nuire au fœtus[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les effets secondaires courants sont les douleurs abdominales, les vomissements, l'inflammation du foie, les maux de tête ou la diarrhée. D'autres effets secondaires peuvent être des caillots sanguins, des hémorragies, des anévrismes ou des perforations gastro-intestinales ,. L'utilisation pendant la grossesse peut nuire au fœtus.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nintedanib a été approuvé pour un usage médical aux États-Unis et en Europe en 2014[2],[1]. Au Royaume-Uni, il en coûte au NHS environ 2 200 livre sterling par mois à partir de 2021[3]. Ce montant aux États-Unis est d'environ 12 000 USD par mois[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nintedanib a été approuvé pour un usage médical aux États-Unis et en Europe en 2014,. Au Royaume-Uni, il en coûte au NHS environ 2 200 livre sterling par mois à partir de 2021. Ce montant aux États-Unis est d'environ 12 000 USD par mois.
 </t>
         </is>
       </c>
